--- a/GRAD PENTEST SKILL SHEET.xlsx
+++ b/GRAD PENTEST SKILL SHEET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive - rit.edu\School\RIT\Classes\Graduate Classes\2nd Semester\Penetration Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive - rit.edu\School\RIT\Classes\Graduate Classes\2nd Semester\Penetration Testing\CSEC-759-Pentester-Skill-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_669ABCDC16F82F6543075114E8D538475B7558E3" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B23BA6F9-0E7A-4796-B87C-E7B84728E5C9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_669ABCDC16F82F6543075114E8D538475B7558E3" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DDCD39B4-C389-4586-83BB-35986D9D1B46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-6585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>Intermediate</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>BASIC COMPLETED</t>
+  </si>
+  <si>
+    <t>Port Scanner</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1328,9 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -1341,7 +1346,9 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -1536,7 +1543,7 @@
       </c>
       <c r="G17" s="24">
         <f>COUNTA(F2:F11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1591,7 +1598,7 @@
       </c>
       <c r="G21" s="31">
         <f>G17+G18+G19*2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -2292,7 +2299,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
